--- a/XrayAbsorbtion/XAS-CDIFImplementation.xlsx
+++ b/XrayAbsorbtion/XAS-CDIFImplementation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944a82e2ddcde9eb/Documents/GithubC/CDIF/integrationPublic/XrayAbsorbtion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{63F0368F-E27C-4D36-A8DB-1B09C9287864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77EDDF83-60C8-4602-805C-D2EFFE471891}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="8_{63F0368F-E27C-4D36-A8DB-1B09C9287864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E1CC821-14CF-4B51-895C-3269E6928DB6}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="7335" xr2:uid="{2A6E3241-1CD0-46EB-AFD7-A45E47D0E7A9}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="19200" windowHeight="8610" xr2:uid="{2A6E3241-1CD0-46EB-AFD7-A45E47D0E7A9}"/>
   </bookViews>
   <sheets>
     <sheet name="CDIF xas implementation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDIF xas implementation'!$A$1:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDIF xas implementation'!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,20 @@
     <author>tc={9943886B-5F8D-4565-907E-C1FEF99CD84C}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{39C5FCB3-EA31-48CA-A867-0CB051EE42EB}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{22703AB7-FF2B-4A01-BED9-43052CA79944}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From NxXAS_new NEXUS application</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{39C5FCB3-EA31-48CA-A867-0CB051EE42EB}">
       <text>
         <r>
           <rPr>
@@ -82,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="206">
   <si>
     <t>XAS field</t>
   </si>
@@ -413,9 +426,6 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>current</t>
   </si>
   <si>
@@ -462,9 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">decimal </t>
-  </si>
-  <si>
-    <t>either in schema:contributor[@type: 'schema:Role', schema:roleName: 'Facility', OR prov:wasGeneratedBy/@type:Event/schema:location,@type=Place…. additionalProperty, propertyID = nxs:Field/NXsource/type</t>
   </si>
   <si>
     <t>xas:harmonic_rejection in property vocabulary</t>
@@ -659,9 +666,6 @@
     <t>units should be joules, product of current and particle energy.</t>
   </si>
   <si>
-    <t>either in schema:contributor[@type: 'schema:Role', schema:roleName: Facility, OR prov:wasGeneratedBy/@type:Event/schema:location,@type=Place…. additionalPrpoerty, propertyID = xas:facility_current</t>
-  </si>
-  <si>
     <t>schema:additionalProperty : { schema:propertyID: xas:calculated,  schema:value: true or false    },</t>
   </si>
   <si>
@@ -719,6 +723,18 @@
   </si>
   <si>
     <t>Suggest using material type vocabulary like https://vocabs.ardc.edu.au/viewById/664</t>
+  </si>
+  <si>
+    <t>cardinality</t>
+  </si>
+  <si>
+    <t>energy (facility)</t>
+  </si>
+  <si>
+    <t>prov:wasGeneratedBy/@type:Event/schema:location,@type=Place…. additionalProperty, propertyID = xas:facility_current</t>
+  </si>
+  <si>
+    <t>prov:wasGeneratedBy/@type:Event/schema:location,@type=Place…. additionalProperty, propertyID = nxs:Field/NXsource/type</t>
   </si>
 </sst>
 </file>
@@ -775,12 +791,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -875,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -913,12 +941,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1261,26 +1315,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082CBB92-8BE8-4945-BD21-3498BF1AC68A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="18.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.86328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1291,33 +1345,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1327,14 +1387,14 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -1344,78 +1404,81 @@
       <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.9" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F6" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>100</v>
       </c>
@@ -1423,158 +1486,171 @@
         <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="F11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.4" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1582,16 +1658,16 @@
         <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1599,65 +1675,64 @@
         <v>94</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,77 +1740,86 @@
         <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1746,7 +1830,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1756,67 +1840,76 @@
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A36" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -1827,7 +1920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -1835,19 +1928,19 @@
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1855,16 +1948,16 @@
         <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -1872,44 +1965,44 @@
         <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
@@ -1919,28 +2012,28 @@
       <c r="C45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="G46" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -1948,13 +2041,13 @@
         <v>94</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -1962,13 +2055,13 @@
         <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -1976,13 +2069,13 @@
         <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="F49" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -1990,39 +2083,41 @@
         <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="52" spans="1:6" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
@@ -2033,7 +2128,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -2043,11 +2138,11 @@
       <c r="C55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2055,46 +2150,46 @@
         <v>94</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="F58" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>94</v>
@@ -2102,65 +2197,43 @@
       <c r="C59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E61" xr:uid="{082CBB92-8BE8-4945-BD21-3498BF1AC68A}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="either in schema:contributor[@type: 'schema:Role', schema:roleName: Facility, OR prov:wasGeneratedBy/@type:Event/schema:location,@type=Place…. additionalProperty, propertyID = xas:energy"/>
-        <filter val="either in schema:contributor[@type: 'schema:Role', schema:roleName: Facility, OR prov:wasGeneratedBy/@type:Event/schema:location,@type=Place…. additionalPrpoerty, propertyID = xas:current"/>
-        <filter val="prov:wasGeneratedBy/@type:Event, additionalType='xas:AnalysisEvent',  prov:used[@type = Thing], additionalType = 'nxs:BaseClass/NXinstrument'"/>
-        <filter val="prov:wasGeneratedBy/@type:Event, prov:Activity, 'xas:AnalysisEvent'"/>
-        <filter val="prov:wasGeneratedBy/additionalProperty:{ schema:propertyID: xas:installedOptions,_x000a_                                schema:value: text description or link    },"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:BaseClass/NXdetector', additionalProperty:{ schema:propertyID: 'xas:detector.i0',"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:BaseClass/NXdetector', additionalProperty:{ schema:propertyID: 'xas:detector.if',"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:BaseClass/NXdetector', additionalProperty:{ schema:propertyID: 'xas:detector.ir',"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:BaseClass/NXdetector', additionalProperty:{ schema:propertyID: 'xas:detector.it',"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:beamline', additionalProperty:{ schema:propertyID: 'xas:collimation',          schema:value: text },"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:beamline', additionalProperty:{ schema:propertyID: 'xas:focusing',           schema:value: text },"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument/additionalType = 'nxs:beamline', additionalProperty:{ schema:propertyID: 'xas:harmonic_rejection',          schema:value: text },"/>
-        <filter val="prov:wasGeneratedBy/nxs:instrument[@type = thing]/additionalType = 'xas:Beamline'"/>
-        <filter val="prov:wasGeneratedBy/schema:mainEntity,_x000a_                    schema:additionalType: MaterialSample, additionalProperty:{ schema:propertyID: 'xas:materialState',"/>
-        <filter val="prov:wasGeneratedBy/schema:mainEntity,_x000a_                    schema:additionalType: MaterialSample, additionalProperty:{ schema:propertyID: 'xas:parentSample',"/>
-        <filter val="prov:wasGeneratedBy/schema:mainEntity,_x000a_                    schema:additionalType: MaterialSample, additionalProperty:{ schema:propertyID: 'xas:samplePreparation',"/>
-        <filter val="schema:additionalProperty : { schema:propertyID: xas:calculated,_x000a_                                schema:value: true or false    },"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F61" xr:uid="{082CBB92-8BE8-4945-BD21-3498BF1AC68A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
